--- a/outputs-HGR-r202/f__Eggerthellaceae.xlsx
+++ b/outputs-HGR-r202/f__Eggerthellaceae.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P23"/>
+  <dimension ref="A1:P25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -680,166 +680,166 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>g__Eggerthella(reject)</t>
+          <t>g__Eggerthella</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT25519.fa</t>
+          <t>even_MAG-GUT25307.fa</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6.480868347619841e-05</v>
+        <v>0.04507040893860129</v>
       </c>
       <c r="C5" t="n">
-        <v>1.735947415835924e-05</v>
+        <v>0.5834168104709057</v>
       </c>
       <c r="D5" t="n">
-        <v>0.005045169099808424</v>
+        <v>0.002033496484842738</v>
       </c>
       <c r="E5" t="n">
-        <v>3.949591084615875e-07</v>
+        <v>6.293780281718526e-05</v>
       </c>
       <c r="F5" t="n">
-        <v>1.913348694042788e-07</v>
+        <v>0.00110817010623836</v>
       </c>
       <c r="G5" t="n">
-        <v>6.840961558771782e-05</v>
+        <v>0.1488449049248874</v>
       </c>
       <c r="H5" t="n">
-        <v>0.001049869882174585</v>
+        <v>0.0001018646469574852</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9852565475848419</v>
+        <v>0.01228992362288566</v>
       </c>
       <c r="J5" t="n">
-        <v>8.090682075700808e-06</v>
+        <v>0.004235026666652845</v>
       </c>
       <c r="K5" t="n">
-        <v>3.331495122276938e-05</v>
+        <v>0.001146837514412124</v>
       </c>
       <c r="L5" t="n">
-        <v>0.001374347250648349</v>
+        <v>0.0007147857853703893</v>
       </c>
       <c r="M5" t="n">
-        <v>0.007081496482027879</v>
+        <v>0.2009748330354287</v>
       </c>
       <c r="N5" t="n">
-        <v>0.9852565475848419</v>
+        <v>0.5834168104709057</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>g__Senegalimassilia</t>
+          <t>g__CAG-1427</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>g__Senegalimassilia</t>
+          <t>g__CAG-1427(reject)</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT25763.fa</t>
+          <t>even_MAG-GUT25519.fa</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0007773749309908571</v>
+        <v>6.480868347619841e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.002362019504943871</v>
+        <v>1.735947415835924e-05</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3748066527436101</v>
+        <v>0.005045169099808424</v>
       </c>
       <c r="E6" t="n">
-        <v>0.00700456839855989</v>
+        <v>3.949591084615875e-07</v>
       </c>
       <c r="F6" t="n">
-        <v>4.862651629930405e-06</v>
+        <v>1.913348694042788e-07</v>
       </c>
       <c r="G6" t="n">
-        <v>0.004620970066315167</v>
+        <v>6.840961558771782e-05</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0008241926307455576</v>
+        <v>0.001049869882174585</v>
       </c>
       <c r="I6" t="n">
-        <v>0.001700147934519568</v>
+        <v>0.9852565475848419</v>
       </c>
       <c r="J6" t="n">
-        <v>0.5972233746006201</v>
+        <v>8.090682075700808e-06</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0007905853845512463</v>
+        <v>3.331495122276938e-05</v>
       </c>
       <c r="L6" t="n">
-        <v>0.009278175227036512</v>
+        <v>0.001374347250648349</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0006070759264770942</v>
+        <v>0.007081496482027879</v>
       </c>
       <c r="N6" t="n">
-        <v>0.5972233746006201</v>
+        <v>0.9852565475848419</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>g__Slackia_A</t>
+          <t>g__Senegalimassilia</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>g__Slackia_A(reject)</t>
+          <t>g__Senegalimassilia</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT25961.fa</t>
+          <t>even_MAG-GUT25763.fa</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.0001360347144331896</v>
+        <v>0.0007773749309908571</v>
       </c>
       <c r="C7" t="n">
-        <v>0.006177906466466197</v>
+        <v>0.002362019504943871</v>
       </c>
       <c r="D7" t="n">
-        <v>0.001164853561955284</v>
+        <v>0.3748066527436101</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0005391707072351257</v>
+        <v>0.00700456839855989</v>
       </c>
       <c r="F7" t="n">
-        <v>8.512789587703251e-08</v>
+        <v>4.862651629930405e-06</v>
       </c>
       <c r="G7" t="n">
-        <v>8.93808100266549e-05</v>
+        <v>0.004620970066315167</v>
       </c>
       <c r="H7" t="n">
-        <v>0.002963847857194039</v>
+        <v>0.0008241926307455576</v>
       </c>
       <c r="I7" t="n">
-        <v>0.001800390164082098</v>
+        <v>0.001700147934519568</v>
       </c>
       <c r="J7" t="n">
-        <v>0.9649537797068987</v>
+        <v>0.5972233746006201</v>
       </c>
       <c r="K7" t="n">
-        <v>8.639825422683618e-08</v>
+        <v>0.0007905853845512463</v>
       </c>
       <c r="L7" t="n">
-        <v>0.02215613953309789</v>
+        <v>0.009278175227036512</v>
       </c>
       <c r="M7" t="n">
-        <v>1.83249524606409e-05</v>
+        <v>0.0006070759264770942</v>
       </c>
       <c r="N7" t="n">
-        <v>0.9649537797068987</v>
+        <v>0.5972233746006201</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -848,54 +848,54 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>g__Slackia_A</t>
+          <t>g__Slackia_A(reject)</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT26205.fa</t>
+          <t>even_MAG-GUT25961.fa</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.665633703481995e-05</v>
+        <v>0.0001360347144331896</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0038839309925357</v>
+        <v>0.006177906466466197</v>
       </c>
       <c r="D8" t="n">
-        <v>0.002451507560185084</v>
+        <v>0.001164853561955284</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0006092297672410674</v>
+        <v>0.0005391707072351257</v>
       </c>
       <c r="F8" t="n">
-        <v>8.950120903000407e-09</v>
+        <v>8.512789587703251e-08</v>
       </c>
       <c r="G8" t="n">
-        <v>7.23228819524351e-05</v>
+        <v>8.93808100266549e-05</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0006351959028050937</v>
+        <v>0.002963847857194039</v>
       </c>
       <c r="I8" t="n">
-        <v>0.00245406516671623</v>
+        <v>0.001800390164082098</v>
       </c>
       <c r="J8" t="n">
-        <v>0.9858858978896635</v>
+        <v>0.9649537797068987</v>
       </c>
       <c r="K8" t="n">
-        <v>6.158871104947281e-09</v>
+        <v>8.639825422683618e-08</v>
       </c>
       <c r="L8" t="n">
-        <v>0.00394348616437164</v>
+        <v>0.02215613953309789</v>
       </c>
       <c r="M8" t="n">
-        <v>4.769222850232547e-05</v>
+        <v>1.83249524606409e-05</v>
       </c>
       <c r="N8" t="n">
-        <v>0.9858858978896635</v>
+        <v>0.9649537797068987</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -911,159 +911,159 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT26303.fa</t>
+          <t>even_MAG-GUT26205.fa</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.001223310538272561</v>
+        <v>1.665633703481995e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>0.00225804694178903</v>
+        <v>0.0038839309925357</v>
       </c>
       <c r="D9" t="n">
-        <v>0.888282747517501</v>
+        <v>0.002451507560185084</v>
       </c>
       <c r="E9" t="n">
-        <v>0.01017073046961399</v>
+        <v>0.0006092297672410674</v>
       </c>
       <c r="F9" t="n">
-        <v>0.004479247280368108</v>
+        <v>8.950120903000407e-09</v>
       </c>
       <c r="G9" t="n">
-        <v>0.04915622751468672</v>
+        <v>7.23228819524351e-05</v>
       </c>
       <c r="H9" t="n">
-        <v>0.004670196034256346</v>
+        <v>0.0006351959028050937</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0100543274026813</v>
+        <v>0.00245406516671623</v>
       </c>
       <c r="J9" t="n">
-        <v>4.204627584410228e-05</v>
+        <v>0.9858858978896635</v>
       </c>
       <c r="K9" t="n">
-        <v>0.02256393496154365</v>
+        <v>6.158871104947281e-09</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0001870898440944872</v>
+        <v>0.00394348616437164</v>
       </c>
       <c r="M9" t="n">
-        <v>0.006912095219348378</v>
+        <v>4.769222850232547e-05</v>
       </c>
       <c r="N9" t="n">
-        <v>0.888282747517501</v>
+        <v>0.9858858978896635</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>g__Eggerthella</t>
+          <t>g__Slackia_A</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>g__Eggerthella</t>
+          <t>g__Slackia_A</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT26387.fa</t>
+          <t>even_MAG-GUT26303.fa</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.0001027653636972945</v>
+        <v>0.001223310538272561</v>
       </c>
       <c r="C10" t="n">
-        <v>0.003000783991295481</v>
+        <v>0.00225804694178903</v>
       </c>
       <c r="D10" t="n">
-        <v>0.001614710493347069</v>
+        <v>0.888282747517501</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0002879365718572132</v>
+        <v>0.01017073046961399</v>
       </c>
       <c r="F10" t="n">
-        <v>2.594917315454905e-07</v>
+        <v>0.004479247280368108</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0003539992176249169</v>
+        <v>0.04915622751468672</v>
       </c>
       <c r="H10" t="n">
-        <v>0.004377226828475089</v>
+        <v>0.004670196034256346</v>
       </c>
       <c r="I10" t="n">
-        <v>0.004382292498173728</v>
+        <v>0.0100543274026813</v>
       </c>
       <c r="J10" t="n">
-        <v>0.985378465527994</v>
+        <v>4.204627584410228e-05</v>
       </c>
       <c r="K10" t="n">
-        <v>3.907668211327247e-08</v>
+        <v>0.02256393496154365</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0004035337227101453</v>
+        <v>0.0001870898440944872</v>
       </c>
       <c r="M10" t="n">
-        <v>9.798721641162101e-05</v>
+        <v>0.006912095219348378</v>
       </c>
       <c r="N10" t="n">
-        <v>0.985378465527994</v>
+        <v>0.888282747517501</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>g__Slackia_A</t>
+          <t>g__Eggerthella</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>g__Slackia_A</t>
+          <t>g__Eggerthella</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT26459.fa</t>
+          <t>even_MAG-GUT26387.fa</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.0001797847278359484</v>
+        <v>0.0001027653636972945</v>
       </c>
       <c r="C11" t="n">
-        <v>0.006846223624802081</v>
+        <v>0.003000783991295481</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0009924491450439955</v>
+        <v>0.001614710493347069</v>
       </c>
       <c r="E11" t="n">
-        <v>7.921120764914041e-05</v>
+        <v>0.0002879365718572132</v>
       </c>
       <c r="F11" t="n">
-        <v>2.662348597909826e-06</v>
+        <v>2.594917315454905e-07</v>
       </c>
       <c r="G11" t="n">
-        <v>0.005208509517593931</v>
+        <v>0.0003539992176249169</v>
       </c>
       <c r="H11" t="n">
-        <v>0.004193717695384845</v>
+        <v>0.004377226828475089</v>
       </c>
       <c r="I11" t="n">
-        <v>0.001140703488092208</v>
+        <v>0.004382292498173728</v>
       </c>
       <c r="J11" t="n">
-        <v>0.9804481461139731</v>
+        <v>0.985378465527994</v>
       </c>
       <c r="K11" t="n">
-        <v>1.495849477596957e-06</v>
+        <v>3.907668211327247e-08</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0008906043818744689</v>
+        <v>0.0004035337227101453</v>
       </c>
       <c r="M11" t="n">
-        <v>1.649189967477378e-05</v>
+        <v>9.798721641162101e-05</v>
       </c>
       <c r="N11" t="n">
-        <v>0.9804481461139731</v>
+        <v>0.985378465527994</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1079,383 +1079,383 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT26531.fa</t>
+          <t>even_MAG-GUT26459.fa</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.001469513785234071</v>
+        <v>0.0001797847278359484</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0005964820910687489</v>
+        <v>0.006846223624802081</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8813668502891311</v>
+        <v>0.0009924491450439955</v>
       </c>
       <c r="E12" t="n">
-        <v>0.003553701473968201</v>
+        <v>7.921120764914041e-05</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0002543407534518301</v>
+        <v>2.662348597909826e-06</v>
       </c>
       <c r="G12" t="n">
-        <v>0.02917414308149092</v>
+        <v>0.005208509517593931</v>
       </c>
       <c r="H12" t="n">
-        <v>0.001433607818829262</v>
+        <v>0.004193717695384845</v>
       </c>
       <c r="I12" t="n">
-        <v>0.02181116912065045</v>
+        <v>0.001140703488092208</v>
       </c>
       <c r="J12" t="n">
-        <v>1.043551898151726e-05</v>
+        <v>0.9804481461139731</v>
       </c>
       <c r="K12" t="n">
-        <v>0.02421315585647058</v>
+        <v>1.495849477596957e-06</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0007377062285499588</v>
+        <v>0.0008906043818744689</v>
       </c>
       <c r="M12" t="n">
-        <v>0.0353788939821734</v>
+        <v>1.649189967477378e-05</v>
       </c>
       <c r="N12" t="n">
-        <v>0.8813668502891311</v>
+        <v>0.9804481461139731</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>g__Eggerthella</t>
+          <t>g__Slackia_A</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>g__Eggerthella</t>
+          <t>g__Slackia_A</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT26562.fa</t>
+          <t>even_MAG-GUT26531.fa</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.0006211350908526291</v>
+        <v>0.001469513785234071</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01020080811904916</v>
+        <v>0.0005964820910687489</v>
       </c>
       <c r="D13" t="n">
-        <v>0.001375269280154887</v>
+        <v>0.8813668502891311</v>
       </c>
       <c r="E13" t="n">
-        <v>0.001454570372624412</v>
+        <v>0.003553701473968201</v>
       </c>
       <c r="F13" t="n">
-        <v>9.293601427422495e-08</v>
+        <v>0.0002543407534518301</v>
       </c>
       <c r="G13" t="n">
-        <v>7.84356815543057e-05</v>
+        <v>0.02917414308149092</v>
       </c>
       <c r="H13" t="n">
-        <v>0.001183692146668048</v>
+        <v>0.001433607818829262</v>
       </c>
       <c r="I13" t="n">
-        <v>0.00238704500170766</v>
+        <v>0.02181116912065045</v>
       </c>
       <c r="J13" t="n">
-        <v>0.965588778655865</v>
+        <v>1.043551898151726e-05</v>
       </c>
       <c r="K13" t="n">
-        <v>4.493399309515625e-07</v>
+        <v>0.02421315585647058</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01708780739354907</v>
+        <v>0.0007377062285499588</v>
       </c>
       <c r="M13" t="n">
-        <v>2.191598202945091e-05</v>
+        <v>0.0353788939821734</v>
       </c>
       <c r="N13" t="n">
-        <v>0.965588778655865</v>
+        <v>0.8813668502891311</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>g__Slackia_A</t>
+          <t>g__Eggerthella</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>g__Slackia_A</t>
+          <t>g__Eggerthella</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT3531.fa</t>
+          <t>even_MAG-GUT26562.fa</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.0002209320193830065</v>
+        <v>0.0006211350908526291</v>
       </c>
       <c r="C14" t="n">
-        <v>0.001827025911142767</v>
+        <v>0.01020080811904916</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8637374423807345</v>
+        <v>0.001375269280154887</v>
       </c>
       <c r="E14" t="n">
-        <v>0.002316693021886061</v>
+        <v>0.001454570372624412</v>
       </c>
       <c r="F14" t="n">
-        <v>0.02035117583720478</v>
+        <v>9.293601427422495e-08</v>
       </c>
       <c r="G14" t="n">
-        <v>0.08661125637874982</v>
+        <v>7.84356815543057e-05</v>
       </c>
       <c r="H14" t="n">
-        <v>0.009029497982866725</v>
+        <v>0.001183692146668048</v>
       </c>
       <c r="I14" t="n">
-        <v>0.009353015781698702</v>
+        <v>0.00238704500170766</v>
       </c>
       <c r="J14" t="n">
-        <v>1.067280568554928e-05</v>
+        <v>0.965588778655865</v>
       </c>
       <c r="K14" t="n">
-        <v>0.003638591471796365</v>
+        <v>4.493399309515625e-07</v>
       </c>
       <c r="L14" t="n">
-        <v>3.653842070803381e-05</v>
+        <v>0.01708780739354907</v>
       </c>
       <c r="M14" t="n">
-        <v>0.002867157988143628</v>
+        <v>2.191598202945091e-05</v>
       </c>
       <c r="N14" t="n">
-        <v>0.8637374423807345</v>
+        <v>0.965588778655865</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>g__Eggerthella</t>
+          <t>g__Slackia_A</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>g__Eggerthella</t>
+          <t>g__Slackia_A</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT45090.fa</t>
+          <t>even_MAG-GUT3531.fa</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.004560253218022546</v>
+        <v>0.0002209320193830065</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9877048402951589</v>
+        <v>0.001827025911142767</v>
       </c>
       <c r="D15" t="n">
-        <v>0.006703564949024096</v>
+        <v>0.8637374423807345</v>
       </c>
       <c r="E15" t="n">
-        <v>9.166649298290497e-05</v>
+        <v>0.002316693021886061</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0002431642838001353</v>
+        <v>0.02035117583720478</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0001530479034615546</v>
+        <v>0.08661125637874982</v>
       </c>
       <c r="H15" t="n">
-        <v>9.486318304719698e-05</v>
+        <v>0.009029497982866725</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0001077557985978359</v>
+        <v>0.009353015781698702</v>
       </c>
       <c r="J15" t="n">
-        <v>9.368669990772277e-05</v>
+        <v>1.067280568554928e-05</v>
       </c>
       <c r="K15" t="n">
-        <v>1.930251033970111e-08</v>
+        <v>0.003638591471796365</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0002186904651790036</v>
+        <v>3.653842070803381e-05</v>
       </c>
       <c r="M15" t="n">
-        <v>2.844740830784235e-05</v>
+        <v>0.002867157988143628</v>
       </c>
       <c r="N15" t="n">
-        <v>0.9877048402951589</v>
+        <v>0.8637374423807345</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>g__CAG-1427</t>
+          <t>g__Eggerthella</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>g__CAG-1427</t>
+          <t>g__Eggerthella</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT57819.fa</t>
+          <t>even_MAG-GUT39108.fa</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.0001028319837995914</v>
+        <v>0.0006762410169692314</v>
       </c>
       <c r="C16" t="n">
-        <v>0.003326262490622307</v>
+        <v>0.003655830027015981</v>
       </c>
       <c r="D16" t="n">
-        <v>0.001737716556574173</v>
+        <v>0.006528362773726547</v>
       </c>
       <c r="E16" t="n">
-        <v>0.002833197289513349</v>
+        <v>0.05079661277664303</v>
       </c>
       <c r="F16" t="n">
-        <v>1.267728445975223e-08</v>
+        <v>0.005528996519307255</v>
       </c>
       <c r="G16" t="n">
-        <v>2.498055520111075e-05</v>
+        <v>0.1572849307180062</v>
       </c>
       <c r="H16" t="n">
-        <v>0.001332833621154918</v>
+        <v>0.010197278190371</v>
       </c>
       <c r="I16" t="n">
-        <v>0.001161678111620989</v>
+        <v>0.06663201653687684</v>
       </c>
       <c r="J16" t="n">
-        <v>0.9728794281602324</v>
+        <v>0.07676095432849236</v>
       </c>
       <c r="K16" t="n">
-        <v>1.000812666286679e-08</v>
+        <v>1.321023298480882e-06</v>
       </c>
       <c r="L16" t="n">
-        <v>0.01658205179220494</v>
+        <v>0.00217935415060838</v>
       </c>
       <c r="M16" t="n">
-        <v>1.899675366489544e-05</v>
+        <v>0.6197581019386847</v>
       </c>
       <c r="N16" t="n">
-        <v>0.9728794281602324</v>
+        <v>0.6197581019386847</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>g__Slackia_A</t>
+          <t>g__UMGS1519</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>g__Slackia_A</t>
+          <t>g__UMGS1519(reject)</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT59296.fa</t>
+          <t>even_MAG-GUT45090.fa</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>6.700470739113502e-05</v>
+        <v>0.004560253218022546</v>
       </c>
       <c r="C17" t="n">
-        <v>0.002024500225984076</v>
+        <v>0.9877048402951589</v>
       </c>
       <c r="D17" t="n">
-        <v>0.005970651974635251</v>
+        <v>0.006703564949024096</v>
       </c>
       <c r="E17" t="n">
-        <v>7.887536311777949e-05</v>
+        <v>9.166649298290497e-05</v>
       </c>
       <c r="F17" t="n">
-        <v>1.047134675508021e-07</v>
+        <v>0.0002431642838001353</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0003215088091217085</v>
+        <v>0.0001530479034615546</v>
       </c>
       <c r="H17" t="n">
-        <v>0.001408182201019074</v>
+        <v>9.486318304719698e-05</v>
       </c>
       <c r="I17" t="n">
-        <v>0.000228938335252027</v>
+        <v>0.0001077557985978359</v>
       </c>
       <c r="J17" t="n">
-        <v>0.9873219685428006</v>
+        <v>9.368669990772277e-05</v>
       </c>
       <c r="K17" t="n">
-        <v>2.794694422433437e-07</v>
+        <v>1.930251033970111e-08</v>
       </c>
       <c r="L17" t="n">
-        <v>0.002524318689637951</v>
+        <v>0.0002186904651790036</v>
       </c>
       <c r="M17" t="n">
-        <v>5.366696813054512e-05</v>
+        <v>2.844740830784235e-05</v>
       </c>
       <c r="N17" t="n">
-        <v>0.9873219685428006</v>
+        <v>0.9877048402951589</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>g__Slackia_A</t>
+          <t>g__CAG-1427</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>g__Slackia_A</t>
+          <t>g__CAG-1427</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT62293.fa</t>
+          <t>even_MAG-GUT57819.fa</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>6.837257148495575e-05</v>
+        <v>0.0001028319837995914</v>
       </c>
       <c r="C18" t="n">
-        <v>0.002222340840294539</v>
+        <v>0.003326262490622307</v>
       </c>
       <c r="D18" t="n">
-        <v>0.001519823880534083</v>
+        <v>0.001737716556574173</v>
       </c>
       <c r="E18" t="n">
-        <v>3.840608718931168e-05</v>
+        <v>0.002833197289513349</v>
       </c>
       <c r="F18" t="n">
-        <v>3.911637700220639e-07</v>
+        <v>1.267728445975223e-08</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0001109838650450807</v>
+        <v>2.498055520111075e-05</v>
       </c>
       <c r="H18" t="n">
-        <v>0.003123922195485586</v>
+        <v>0.001332833621154918</v>
       </c>
       <c r="I18" t="n">
-        <v>0.003991863785003754</v>
+        <v>0.001161678111620989</v>
       </c>
       <c r="J18" t="n">
-        <v>0.9875955432505836</v>
+        <v>0.9728794281602324</v>
       </c>
       <c r="K18" t="n">
-        <v>2.419098175218248e-07</v>
+        <v>1.000812666286679e-08</v>
       </c>
       <c r="L18" t="n">
-        <v>0.001228008605449596</v>
+        <v>0.01658205179220494</v>
       </c>
       <c r="M18" t="n">
-        <v>0.000100101845341822</v>
+        <v>1.899675366489544e-05</v>
       </c>
       <c r="N18" t="n">
-        <v>0.9875955432505836</v>
+        <v>0.9728794281602324</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -1471,278 +1471,390 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68598.fa</t>
+          <t>even_MAG-GUT59296.fa</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2.146993143896513e-05</v>
+        <v>6.700470739113502e-05</v>
       </c>
       <c r="C19" t="n">
-        <v>0.01407842866517101</v>
+        <v>0.002024500225984076</v>
       </c>
       <c r="D19" t="n">
-        <v>0.8566334713405445</v>
+        <v>0.005970651974635251</v>
       </c>
       <c r="E19" t="n">
-        <v>0.002202674083375672</v>
+        <v>7.887536311777949e-05</v>
       </c>
       <c r="F19" t="n">
-        <v>0.07718207233279288</v>
+        <v>1.047134675508021e-07</v>
       </c>
       <c r="G19" t="n">
-        <v>0.04234766419895539</v>
+        <v>0.0003215088091217085</v>
       </c>
       <c r="H19" t="n">
-        <v>0.00278969000589111</v>
+        <v>0.001408182201019074</v>
       </c>
       <c r="I19" t="n">
-        <v>0.002540930561211417</v>
+        <v>0.000228938335252027</v>
       </c>
       <c r="J19" t="n">
-        <v>0.001654448815819602</v>
+        <v>0.9873219685428006</v>
       </c>
       <c r="K19" t="n">
-        <v>9.423939126839383e-05</v>
+        <v>2.794694422433437e-07</v>
       </c>
       <c r="L19" t="n">
-        <v>6.411174759945159e-06</v>
+        <v>0.002524318689637951</v>
       </c>
       <c r="M19" t="n">
-        <v>0.0004484994987711003</v>
+        <v>5.366696813054512e-05</v>
       </c>
       <c r="N19" t="n">
-        <v>0.8566334713405445</v>
+        <v>0.9873219685428006</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>g__Eggerthella</t>
+          <t>g__Slackia_A</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>g__Eggerthella</t>
+          <t>g__Slackia_A</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT80819.fa</t>
+          <t>even_MAG-GUT62293.fa</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.0007953927658553725</v>
+        <v>6.837257148495575e-05</v>
       </c>
       <c r="C20" t="n">
-        <v>0.001048250057546592</v>
+        <v>0.002222340840294539</v>
       </c>
       <c r="D20" t="n">
-        <v>0.6610159945453544</v>
+        <v>0.001519823880534083</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0006644466956661349</v>
+        <v>3.840608718931168e-05</v>
       </c>
       <c r="F20" t="n">
-        <v>0.206610787129188</v>
+        <v>3.911637700220639e-07</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02198882167588559</v>
+        <v>0.0001109838650450807</v>
       </c>
       <c r="H20" t="n">
-        <v>0.02005644335099205</v>
+        <v>0.003123922195485586</v>
       </c>
       <c r="I20" t="n">
-        <v>0.01420526577990305</v>
+        <v>0.003991863785003754</v>
       </c>
       <c r="J20" t="n">
-        <v>0.0002280244502213441</v>
+        <v>0.9875955432505836</v>
       </c>
       <c r="K20" t="n">
-        <v>0.06578897816022318</v>
+        <v>2.419098175218248e-07</v>
       </c>
       <c r="L20" t="n">
-        <v>1.057396915436734e-05</v>
+        <v>0.001228008605449596</v>
       </c>
       <c r="M20" t="n">
-        <v>0.007587021420009948</v>
+        <v>0.000100101845341822</v>
       </c>
       <c r="N20" t="n">
-        <v>0.6610159945453544</v>
+        <v>0.9875955432505836</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>g__Eggerthella</t>
+          <t>g__Slackia_A</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>g__Eggerthella(reject)</t>
+          <t>g__Slackia_A</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT82008.fa</t>
+          <t>even_MAG-GUT68598.fa</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.004436668768104452</v>
+        <v>2.146993143896513e-05</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9860437183993396</v>
+        <v>0.01407842866517101</v>
       </c>
       <c r="D21" t="n">
-        <v>0.007230237714797827</v>
+        <v>0.8566334713405445</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0003293871230550966</v>
+        <v>0.002202674083375672</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0001059355049163749</v>
+        <v>0.07718207233279288</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0007301461918123002</v>
+        <v>0.04234766419895539</v>
       </c>
       <c r="H21" t="n">
-        <v>4.328502613037403e-05</v>
+        <v>0.00278969000589111</v>
       </c>
       <c r="I21" t="n">
-        <v>0.000362428456619734</v>
+        <v>0.002540930561211417</v>
       </c>
       <c r="J21" t="n">
-        <v>4.705173713572253e-05</v>
+        <v>0.001654448815819602</v>
       </c>
       <c r="K21" t="n">
-        <v>1.474736700707451e-07</v>
+        <v>9.423939126839383e-05</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0006374214641879057</v>
+        <v>6.411174759945159e-06</v>
       </c>
       <c r="M21" t="n">
-        <v>3.357214023024495e-05</v>
+        <v>0.0004484994987711003</v>
       </c>
       <c r="N21" t="n">
-        <v>0.9860437183993396</v>
+        <v>0.8566334713405445</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>g__CAG-1427</t>
+          <t>g__Eggerthella</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>g__CAG-1427</t>
+          <t>g__Eggerthella</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT8776.fa</t>
+          <t>even_MAG-GUT80819.fa</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.0002038262524901485</v>
+        <v>0.0007953927658553725</v>
       </c>
       <c r="C22" t="n">
-        <v>0.002991245597473334</v>
+        <v>0.001048250057546592</v>
       </c>
       <c r="D22" t="n">
-        <v>0.003114480072393779</v>
+        <v>0.6610159945453544</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0007531711476383238</v>
+        <v>0.0006644466956661349</v>
       </c>
       <c r="F22" t="n">
-        <v>1.062262555188808e-07</v>
+        <v>0.206610787129188</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0003578156934168376</v>
+        <v>0.02198882167588559</v>
       </c>
       <c r="H22" t="n">
-        <v>0.002654990278942219</v>
+        <v>0.02005644335099205</v>
       </c>
       <c r="I22" t="n">
-        <v>0.001870931755557914</v>
+        <v>0.01420526577990305</v>
       </c>
       <c r="J22" t="n">
-        <v>0.9827149657355581</v>
+        <v>0.0002280244502213441</v>
       </c>
       <c r="K22" t="n">
-        <v>4.450742406910509e-07</v>
+        <v>0.06578897816022318</v>
       </c>
       <c r="L22" t="n">
-        <v>0.005319286044982904</v>
+        <v>1.057396915436734e-05</v>
       </c>
       <c r="M22" t="n">
-        <v>1.873612105035474e-05</v>
+        <v>0.007587021420009948</v>
       </c>
       <c r="N22" t="n">
-        <v>0.9827149657355581</v>
+        <v>0.6610159945453544</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>g__Slackia_A</t>
+          <t>g__Eggerthella</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>g__Slackia_A</t>
+          <t>g__Eggerthella</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
+          <t>even_MAG-GUT82008.fa</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.004436668768104452</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.9860437183993396</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.007230237714797827</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.0003293871230550966</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.0001059355049163749</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.0007301461918123002</v>
+      </c>
+      <c r="H23" t="n">
+        <v>4.328502613037403e-05</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.000362428456619734</v>
+      </c>
+      <c r="J23" t="n">
+        <v>4.705173713572253e-05</v>
+      </c>
+      <c r="K23" t="n">
+        <v>1.474736700707451e-07</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.0006374214641879057</v>
+      </c>
+      <c r="M23" t="n">
+        <v>3.357214023024495e-05</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.9860437183993396</v>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>g__CAG-1427</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>g__CAG-1427</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT8776.fa</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.0002038262524901485</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.002991245597473334</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.003114480072393779</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.0007531711476383238</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1.062262555188808e-07</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.0003578156934168376</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.002654990278942219</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.001870931755557914</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.9827149657355581</v>
+      </c>
+      <c r="K24" t="n">
+        <v>4.450742406910509e-07</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.005319286044982904</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.873612105035474e-05</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.9827149657355581</v>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>g__Slackia_A</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>g__Slackia_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
           <t>even_MAG-GUT9228.fa</t>
         </is>
       </c>
-      <c r="B23" t="n">
+      <c r="B25" t="n">
         <v>5.799996832870006e-05</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C25" t="n">
         <v>0.003356065315005105</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D25" t="n">
         <v>0.001421804404733637</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E25" t="n">
         <v>0.0001087478945429537</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F25" t="n">
         <v>1.860327244043601e-07</v>
       </c>
-      <c r="G23" t="n">
+      <c r="G25" t="n">
         <v>8.452639981707806e-06</v>
       </c>
-      <c r="H23" t="n">
+      <c r="H25" t="n">
         <v>0.001866608422762466</v>
       </c>
-      <c r="I23" t="n">
+      <c r="I25" t="n">
         <v>0.007481300507329518</v>
       </c>
-      <c r="J23" t="n">
+      <c r="J25" t="n">
         <v>0.9852576033122663</v>
       </c>
-      <c r="K23" t="n">
+      <c r="K25" t="n">
         <v>1.085262305462979e-07</v>
       </c>
-      <c r="L23" t="n">
+      <c r="L25" t="n">
         <v>0.0004273993475958655</v>
       </c>
-      <c r="M23" t="n">
+      <c r="M25" t="n">
         <v>1.372362849875403e-05</v>
       </c>
-      <c r="N23" t="n">
+      <c r="N25" t="n">
         <v>0.9852576033122663</v>
       </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>g__Slackia_A</t>
-        </is>
-      </c>
-      <c r="P23" t="inlineStr">
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>g__Slackia_A</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
         <is>
           <t>g__Slackia_A</t>
         </is>

--- a/outputs-HGR-r202/f__Eggerthellaceae.xlsx
+++ b/outputs-HGR-r202/f__Eggerthellaceae.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O43"/>
+  <dimension ref="A1:P43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -510,6 +510,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -561,6 +566,11 @@
           <t>g__Eggerthella</t>
         </is>
       </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>g__Eggerthella</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -612,6 +622,11 @@
           <t>g__UMGS1519</t>
         </is>
       </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>g__UMGS1519(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -663,6 +678,11 @@
           <t>g__Eggerthella</t>
         </is>
       </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>g__Eggerthella</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -714,6 +734,11 @@
           <t>g__UMGS1519</t>
         </is>
       </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>g__UMGS1519(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -765,6 +790,11 @@
           <t>g__Eggerthella</t>
         </is>
       </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>g__Eggerthella</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -816,6 +846,11 @@
           <t>g__CAG-1427</t>
         </is>
       </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>g__CAG-1427(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -867,6 +902,11 @@
           <t>g__Senegalimassilia</t>
         </is>
       </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>g__Senegalimassilia</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -918,6 +958,11 @@
           <t>g__Slackia_A</t>
         </is>
       </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>g__Slackia_A(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -969,6 +1014,11 @@
           <t>g__Slackia_A</t>
         </is>
       </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>g__Slackia_A</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -1020,6 +1070,11 @@
           <t>g__Slackia_A</t>
         </is>
       </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>g__Slackia_A</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -1071,6 +1126,11 @@
           <t>g__Eggerthella</t>
         </is>
       </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>g__Eggerthella</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -1122,6 +1182,11 @@
           <t>g__Slackia_A</t>
         </is>
       </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>g__Slackia_A</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -1173,6 +1238,11 @@
           <t>g__Slackia_A</t>
         </is>
       </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>g__Slackia_A</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -1224,6 +1294,11 @@
           <t>g__Eggerthella</t>
         </is>
       </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>g__Eggerthella</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1275,6 +1350,11 @@
           <t>g__Slackia_A</t>
         </is>
       </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>g__Slackia_A</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -1326,6 +1406,11 @@
           <t>g__Eggerthella</t>
         </is>
       </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>g__Eggerthella</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1377,6 +1462,11 @@
           <t>g__UMGS1519</t>
         </is>
       </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>g__UMGS1519(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1428,6 +1518,11 @@
           <t>g__UMGS1519</t>
         </is>
       </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>g__UMGS1519</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1479,6 +1574,11 @@
           <t>g__UMGS1519</t>
         </is>
       </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>g__UMGS1519(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1530,6 +1630,11 @@
           <t>g__UMGS1519</t>
         </is>
       </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>g__UMGS1519</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1581,6 +1686,11 @@
           <t>g__CAG-1427</t>
         </is>
       </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>g__CAG-1427</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1632,6 +1742,11 @@
           <t>g__UMGS1293</t>
         </is>
       </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>g__UMGS1293(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1683,6 +1798,11 @@
           <t>g__UMGS1519</t>
         </is>
       </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>g__UMGS1519(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1734,6 +1854,11 @@
           <t>g__UMGS1519</t>
         </is>
       </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>g__UMGS1519(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1785,6 +1910,11 @@
           <t>g__Slackia_A</t>
         </is>
       </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>g__Slackia_A</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1836,6 +1966,11 @@
           <t>g__Slackia_A</t>
         </is>
       </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>g__Slackia_A</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1887,6 +2022,11 @@
           <t>g__Slackia_A</t>
         </is>
       </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>g__Slackia_A</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1938,6 +2078,11 @@
           <t>g__UMGS1519</t>
         </is>
       </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>g__UMGS1519(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1989,6 +2134,11 @@
           <t>g__UMGS1519</t>
         </is>
       </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>g__UMGS1519(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -2040,6 +2190,11 @@
           <t>g__UMGS1519</t>
         </is>
       </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>g__UMGS1519(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -2091,6 +2246,11 @@
           <t>g__UMGS1293</t>
         </is>
       </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>g__UMGS1293(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -2142,6 +2302,11 @@
           <t>g__UMGS1519</t>
         </is>
       </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>g__UMGS1519</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -2193,6 +2358,11 @@
           <t>g__UMGS1519</t>
         </is>
       </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>g__UMGS1519(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -2244,6 +2414,11 @@
           <t>g__UMGS1519</t>
         </is>
       </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>g__UMGS1519(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -2295,6 +2470,11 @@
           <t>g__Eggerthella</t>
         </is>
       </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>g__Eggerthella</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -2346,6 +2526,11 @@
           <t>g__UMGS1293</t>
         </is>
       </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>g__UMGS1293(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -2397,6 +2582,11 @@
           <t>g__UMGS1519</t>
         </is>
       </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>g__UMGS1519(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -2448,6 +2638,11 @@
           <t>g__Eggerthella</t>
         </is>
       </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>g__Eggerthella</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -2499,6 +2694,11 @@
           <t>g__UMGS1519</t>
         </is>
       </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>g__UMGS1519(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -2550,6 +2750,11 @@
           <t>g__CAG-1427</t>
         </is>
       </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>g__CAG-1427</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -2601,6 +2806,11 @@
           <t>g__Slackia_A</t>
         </is>
       </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>g__Slackia_A</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -2648,6 +2858,11 @@
         <v>0.9852576033122663</v>
       </c>
       <c r="O43" t="inlineStr">
+        <is>
+          <t>g__Slackia_A</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
         <is>
           <t>g__Slackia_A</t>
         </is>

--- a/outputs-HGR-r202/f__Eggerthellaceae.xlsx
+++ b/outputs-HGR-r202/f__Eggerthellaceae.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P43"/>
+  <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -575,112 +575,112 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT11934.fa</t>
+          <t>even_MAG-GUT1389.fa</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.004492220460684185</v>
+        <v>0.0001516199770882037</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0008853558697827094</v>
+        <v>0.00057813778342169</v>
       </c>
       <c r="D3" t="n">
-        <v>0.008449101662400245</v>
+        <v>0.8422276596532041</v>
       </c>
       <c r="E3" t="n">
-        <v>7.423274941596146e-06</v>
+        <v>0.002055154032585659</v>
       </c>
       <c r="F3" t="n">
-        <v>0.001901899290797562</v>
+        <v>0.0001601911451722841</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1149602613657837</v>
+        <v>0.1106713770769697</v>
       </c>
       <c r="H3" t="n">
-        <v>0.02231585357993273</v>
+        <v>0.006108952537054451</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2321474637457925</v>
+        <v>0.01504880203554599</v>
       </c>
       <c r="J3" t="n">
-        <v>0.01062531228272469</v>
+        <v>3.874933549509543e-05</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0006308855500024142</v>
+        <v>0.007220721427700551</v>
       </c>
       <c r="L3" t="n">
-        <v>0.004148480556427436</v>
+        <v>0.0001614967723341209</v>
       </c>
       <c r="M3" t="n">
-        <v>0.5994357423607303</v>
+        <v>0.01557713822342808</v>
       </c>
       <c r="N3" t="n">
-        <v>0.5994357423607303</v>
+        <v>0.8422276596532041</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>g__UMGS1519</t>
+          <t>g__Eggerthella</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>g__UMGS1519(reject)</t>
+          <t>g__Eggerthella</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1389.fa</t>
+          <t>even_MAG-GUT14250.fa</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0001516199770882037</v>
+        <v>0.01274864001196367</v>
       </c>
       <c r="C4" t="n">
-        <v>0.00057813778342169</v>
+        <v>0.03414314278801293</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8422276596532041</v>
+        <v>0.0006617280898922541</v>
       </c>
       <c r="E4" t="n">
-        <v>0.002055154032585659</v>
+        <v>0.001107832227957628</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0001601911451722841</v>
+        <v>0.0004258585453887901</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1106713770769697</v>
+        <v>0.2774983952552321</v>
       </c>
       <c r="H4" t="n">
-        <v>0.006108952537054451</v>
+        <v>2.502015963959606e-05</v>
       </c>
       <c r="I4" t="n">
-        <v>0.01504880203554599</v>
+        <v>0.002149017730354172</v>
       </c>
       <c r="J4" t="n">
-        <v>3.874933549509543e-05</v>
+        <v>7.066372874463768e-05</v>
       </c>
       <c r="K4" t="n">
-        <v>0.007220721427700551</v>
+        <v>0.000201337015744798</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0001614967723341209</v>
+        <v>1.239654868179148e-05</v>
       </c>
       <c r="M4" t="n">
-        <v>0.01557713822342808</v>
+        <v>0.6709559678983876</v>
       </c>
       <c r="N4" t="n">
-        <v>0.8422276596532041</v>
+        <v>0.6709559678983876</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>g__Eggerthella</t>
+          <t>g__UMGS1519</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>g__Eggerthella</t>
+          <t>g__UMGS1519(reject)</t>
         </is>
       </c>
     </row>
@@ -799,271 +799,271 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT25307.fa</t>
+          <t>even_MAG-GUT16149.fa</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.04507040893860129</v>
+        <v>0.03593011997373279</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5834168104709057</v>
+        <v>0.03676277772239895</v>
       </c>
       <c r="D7" t="n">
-        <v>0.002033496484842738</v>
+        <v>0.008703157082115538</v>
       </c>
       <c r="E7" t="n">
-        <v>6.293780281718526e-05</v>
+        <v>0.002446660984055082</v>
       </c>
       <c r="F7" t="n">
-        <v>0.00110817010623836</v>
+        <v>0.0008093605438180194</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1488449049248874</v>
+        <v>0.2094780653398221</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0001018646469574852</v>
+        <v>0.0001542699596136056</v>
       </c>
       <c r="I7" t="n">
-        <v>0.01228992362288566</v>
+        <v>0.01523425173965959</v>
       </c>
       <c r="J7" t="n">
-        <v>0.004235026666652845</v>
+        <v>0.01180762984749115</v>
       </c>
       <c r="K7" t="n">
-        <v>0.001146837514412124</v>
+        <v>0.003024307572653491</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0007147857853703893</v>
+        <v>0.000275974923149555</v>
       </c>
       <c r="M7" t="n">
-        <v>0.2009748330354287</v>
+        <v>0.6753734243114902</v>
       </c>
       <c r="N7" t="n">
-        <v>0.5834168104709057</v>
+        <v>0.6753734243114902</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>g__CAG-1427</t>
+          <t>g__UMGS1519</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>g__CAG-1427(reject)</t>
+          <t>g__UMGS1519(reject)</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT25519.fa</t>
+          <t>even_MAG-GUT18195.fa</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.480868347619841e-05</v>
+        <v>0.02330979907456112</v>
       </c>
       <c r="C8" t="n">
-        <v>1.735947415835924e-05</v>
+        <v>0.02056169157230322</v>
       </c>
       <c r="D8" t="n">
-        <v>0.005045169099808424</v>
+        <v>0.001219200514031379</v>
       </c>
       <c r="E8" t="n">
-        <v>3.949591084615875e-07</v>
+        <v>0.003862826042510641</v>
       </c>
       <c r="F8" t="n">
-        <v>1.913348694042788e-07</v>
+        <v>0.004886578051671042</v>
       </c>
       <c r="G8" t="n">
-        <v>6.840961558771782e-05</v>
+        <v>0.1887390430849703</v>
       </c>
       <c r="H8" t="n">
-        <v>0.001049869882174585</v>
+        <v>8.937377782358882e-05</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9852565475848419</v>
+        <v>0.003466644322096885</v>
       </c>
       <c r="J8" t="n">
-        <v>8.090682075700808e-06</v>
+        <v>2.840738280388631e-05</v>
       </c>
       <c r="K8" t="n">
-        <v>3.331495122276938e-05</v>
+        <v>0.001134563440415857</v>
       </c>
       <c r="L8" t="n">
-        <v>0.001374347250648349</v>
+        <v>5.68821219074459e-05</v>
       </c>
       <c r="M8" t="n">
-        <v>0.007081496482027879</v>
+        <v>0.7526449906149046</v>
       </c>
       <c r="N8" t="n">
-        <v>0.9852565475848419</v>
+        <v>0.7526449906149046</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>g__Senegalimassilia</t>
+          <t>g__UMGS1519</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>g__Senegalimassilia</t>
+          <t>g__UMGS1519</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT25763.fa</t>
+          <t>even_MAG-GUT25075.fa</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0007773749309908571</v>
+        <v>0.02114108958505536</v>
       </c>
       <c r="C9" t="n">
-        <v>0.002362019504943871</v>
+        <v>0.04567143430101045</v>
       </c>
       <c r="D9" t="n">
-        <v>0.3748066527436101</v>
+        <v>0.001498743864420272</v>
       </c>
       <c r="E9" t="n">
-        <v>0.00700456839855989</v>
+        <v>0.002438648249978765</v>
       </c>
       <c r="F9" t="n">
-        <v>4.862651629930405e-06</v>
+        <v>0.003122446614148808</v>
       </c>
       <c r="G9" t="n">
-        <v>0.004620970066315167</v>
+        <v>0.2244570220547217</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0008241926307455576</v>
+        <v>0.0001077857992660104</v>
       </c>
       <c r="I9" t="n">
-        <v>0.001700147934519568</v>
+        <v>0.002098475262395765</v>
       </c>
       <c r="J9" t="n">
-        <v>0.5972233746006201</v>
+        <v>5.39775713945426e-05</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0007905853845512463</v>
+        <v>0.0005551764502424357</v>
       </c>
       <c r="L9" t="n">
-        <v>0.009278175227036512</v>
+        <v>0.0001230631489931472</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0006070759264770942</v>
+        <v>0.6987321370983728</v>
       </c>
       <c r="N9" t="n">
-        <v>0.5972233746006201</v>
+        <v>0.6987321370983728</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>g__Slackia_A</t>
+          <t>g__UMGS1519</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>g__Slackia_A(reject)</t>
+          <t>g__UMGS1519(reject)</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT25961.fa</t>
+          <t>even_MAG-GUT25519.fa</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.0001360347144331896</v>
+        <v>6.480868347619841e-05</v>
       </c>
       <c r="C10" t="n">
-        <v>0.006177906466466197</v>
+        <v>1.735947415835924e-05</v>
       </c>
       <c r="D10" t="n">
-        <v>0.001164853561955284</v>
+        <v>0.005045169099808424</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0005391707072351257</v>
+        <v>3.949591084615875e-07</v>
       </c>
       <c r="F10" t="n">
-        <v>8.512789587703251e-08</v>
+        <v>1.913348694042788e-07</v>
       </c>
       <c r="G10" t="n">
-        <v>8.93808100266549e-05</v>
+        <v>6.840961558771782e-05</v>
       </c>
       <c r="H10" t="n">
-        <v>0.002963847857194039</v>
+        <v>0.001049869882174585</v>
       </c>
       <c r="I10" t="n">
-        <v>0.001800390164082098</v>
+        <v>0.9852565475848419</v>
       </c>
       <c r="J10" t="n">
-        <v>0.9649537797068987</v>
+        <v>8.090682075700808e-06</v>
       </c>
       <c r="K10" t="n">
-        <v>8.639825422683618e-08</v>
+        <v>3.331495122276938e-05</v>
       </c>
       <c r="L10" t="n">
-        <v>0.02215613953309789</v>
+        <v>0.001374347250648349</v>
       </c>
       <c r="M10" t="n">
-        <v>1.83249524606409e-05</v>
+        <v>0.007081496482027879</v>
       </c>
       <c r="N10" t="n">
-        <v>0.9649537797068987</v>
+        <v>0.9852565475848419</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>g__Slackia_A</t>
+          <t>g__Senegalimassilia</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>g__Slackia_A</t>
+          <t>g__Senegalimassilia</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT26205.fa</t>
+          <t>even_MAG-GUT25763.fa</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.665633703481995e-05</v>
+        <v>0.0007773749309908571</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0038839309925357</v>
+        <v>0.002362019504943871</v>
       </c>
       <c r="D11" t="n">
-        <v>0.002451507560185084</v>
+        <v>0.3748066527436101</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0006092297672410674</v>
+        <v>0.00700456839855989</v>
       </c>
       <c r="F11" t="n">
-        <v>8.950120903000407e-09</v>
+        <v>4.862651629930405e-06</v>
       </c>
       <c r="G11" t="n">
-        <v>7.23228819524351e-05</v>
+        <v>0.004620970066315167</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0006351959028050937</v>
+        <v>0.0008241926307455576</v>
       </c>
       <c r="I11" t="n">
-        <v>0.00245406516671623</v>
+        <v>0.001700147934519568</v>
       </c>
       <c r="J11" t="n">
-        <v>0.9858858978896635</v>
+        <v>0.5972233746006201</v>
       </c>
       <c r="K11" t="n">
-        <v>6.158871104947281e-09</v>
+        <v>0.0007905853845512463</v>
       </c>
       <c r="L11" t="n">
-        <v>0.00394348616437164</v>
+        <v>0.009278175227036512</v>
       </c>
       <c r="M11" t="n">
-        <v>4.769222850232547e-05</v>
+        <v>0.0006070759264770942</v>
       </c>
       <c r="N11" t="n">
-        <v>0.9858858978896635</v>
+        <v>0.5972233746006201</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1072,110 +1072,110 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>g__Slackia_A</t>
+          <t>g__Slackia_A(reject)</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT26303.fa</t>
+          <t>even_MAG-GUT25961.fa</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.001223310538272561</v>
+        <v>0.0001360347144331896</v>
       </c>
       <c r="C12" t="n">
-        <v>0.00225804694178903</v>
+        <v>0.006177906466466197</v>
       </c>
       <c r="D12" t="n">
-        <v>0.888282747517501</v>
+        <v>0.001164853561955284</v>
       </c>
       <c r="E12" t="n">
-        <v>0.01017073046961399</v>
+        <v>0.0005391707072351257</v>
       </c>
       <c r="F12" t="n">
-        <v>0.004479247280368108</v>
+        <v>8.512789587703251e-08</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04915622751468672</v>
+        <v>8.93808100266549e-05</v>
       </c>
       <c r="H12" t="n">
-        <v>0.004670196034256346</v>
+        <v>0.002963847857194039</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0100543274026813</v>
+        <v>0.001800390164082098</v>
       </c>
       <c r="J12" t="n">
-        <v>4.204627584410228e-05</v>
+        <v>0.9649537797068987</v>
       </c>
       <c r="K12" t="n">
-        <v>0.02256393496154365</v>
+        <v>8.639825422683618e-08</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0001870898440944872</v>
+        <v>0.02215613953309789</v>
       </c>
       <c r="M12" t="n">
-        <v>0.006912095219348378</v>
+        <v>1.83249524606409e-05</v>
       </c>
       <c r="N12" t="n">
-        <v>0.888282747517501</v>
+        <v>0.9649537797068987</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>g__Eggerthella</t>
+          <t>g__Slackia_A</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>g__Eggerthella</t>
+          <t>g__Slackia_A</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT26387.fa</t>
+          <t>even_MAG-GUT26205.fa</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.0001027653636972945</v>
+        <v>1.665633703481995e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.003000783991295481</v>
+        <v>0.0038839309925357</v>
       </c>
       <c r="D13" t="n">
-        <v>0.001614710493347069</v>
+        <v>0.002451507560185084</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0002879365718572132</v>
+        <v>0.0006092297672410674</v>
       </c>
       <c r="F13" t="n">
-        <v>2.594917315454905e-07</v>
+        <v>8.950120903000407e-09</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0003539992176249169</v>
+        <v>7.23228819524351e-05</v>
       </c>
       <c r="H13" t="n">
-        <v>0.004377226828475089</v>
+        <v>0.0006351959028050937</v>
       </c>
       <c r="I13" t="n">
-        <v>0.004382292498173728</v>
+        <v>0.00245406516671623</v>
       </c>
       <c r="J13" t="n">
-        <v>0.985378465527994</v>
+        <v>0.9858858978896635</v>
       </c>
       <c r="K13" t="n">
-        <v>3.907668211327247e-08</v>
+        <v>6.158871104947281e-09</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0004035337227101453</v>
+        <v>0.00394348616437164</v>
       </c>
       <c r="M13" t="n">
-        <v>9.798721641162101e-05</v>
+        <v>4.769222850232547e-05</v>
       </c>
       <c r="N13" t="n">
-        <v>0.985378465527994</v>
+        <v>0.9858858978896635</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1191,159 +1191,159 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT26459.fa</t>
+          <t>even_MAG-GUT26303.fa</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.0001797847278359484</v>
+        <v>0.001223310538272561</v>
       </c>
       <c r="C14" t="n">
-        <v>0.006846223624802081</v>
+        <v>0.00225804694178903</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0009924491450439955</v>
+        <v>0.888282747517501</v>
       </c>
       <c r="E14" t="n">
-        <v>7.921120764914041e-05</v>
+        <v>0.01017073046961399</v>
       </c>
       <c r="F14" t="n">
-        <v>2.662348597909826e-06</v>
+        <v>0.004479247280368108</v>
       </c>
       <c r="G14" t="n">
-        <v>0.005208509517593931</v>
+        <v>0.04915622751468672</v>
       </c>
       <c r="H14" t="n">
-        <v>0.004193717695384845</v>
+        <v>0.004670196034256346</v>
       </c>
       <c r="I14" t="n">
-        <v>0.001140703488092208</v>
+        <v>0.0100543274026813</v>
       </c>
       <c r="J14" t="n">
-        <v>0.9804481461139731</v>
+        <v>4.204627584410228e-05</v>
       </c>
       <c r="K14" t="n">
-        <v>1.495849477596957e-06</v>
+        <v>0.02256393496154365</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0008906043818744689</v>
+        <v>0.0001870898440944872</v>
       </c>
       <c r="M14" t="n">
-        <v>1.649189967477378e-05</v>
+        <v>0.006912095219348378</v>
       </c>
       <c r="N14" t="n">
-        <v>0.9804481461139731</v>
+        <v>0.888282747517501</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>g__Slackia_A</t>
+          <t>g__Eggerthella</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>g__Slackia_A</t>
+          <t>g__Eggerthella</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT26531.fa</t>
+          <t>even_MAG-GUT26387.fa</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.001469513785234071</v>
+        <v>0.0001027653636972945</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0005964820910687489</v>
+        <v>0.003000783991295481</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8813668502891311</v>
+        <v>0.001614710493347069</v>
       </c>
       <c r="E15" t="n">
-        <v>0.003553701473968201</v>
+        <v>0.0002879365718572132</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0002543407534518301</v>
+        <v>2.594917315454905e-07</v>
       </c>
       <c r="G15" t="n">
-        <v>0.02917414308149092</v>
+        <v>0.0003539992176249169</v>
       </c>
       <c r="H15" t="n">
-        <v>0.001433607818829262</v>
+        <v>0.004377226828475089</v>
       </c>
       <c r="I15" t="n">
-        <v>0.02181116912065045</v>
+        <v>0.004382292498173728</v>
       </c>
       <c r="J15" t="n">
-        <v>1.043551898151726e-05</v>
+        <v>0.985378465527994</v>
       </c>
       <c r="K15" t="n">
-        <v>0.02421315585647058</v>
+        <v>3.907668211327247e-08</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0007377062285499588</v>
+        <v>0.0004035337227101453</v>
       </c>
       <c r="M15" t="n">
-        <v>0.0353788939821734</v>
+        <v>9.798721641162101e-05</v>
       </c>
       <c r="N15" t="n">
-        <v>0.8813668502891311</v>
+        <v>0.985378465527994</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>g__Eggerthella</t>
+          <t>g__Slackia_A</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>g__Eggerthella</t>
+          <t>g__Slackia_A</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT26562.fa</t>
+          <t>even_MAG-GUT26459.fa</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.0006211350908526291</v>
+        <v>0.0001797847278359484</v>
       </c>
       <c r="C16" t="n">
-        <v>0.01020080811904916</v>
+        <v>0.006846223624802081</v>
       </c>
       <c r="D16" t="n">
-        <v>0.001375269280154887</v>
+        <v>0.0009924491450439955</v>
       </c>
       <c r="E16" t="n">
-        <v>0.001454570372624412</v>
+        <v>7.921120764914041e-05</v>
       </c>
       <c r="F16" t="n">
-        <v>9.293601427422495e-08</v>
+        <v>2.662348597909826e-06</v>
       </c>
       <c r="G16" t="n">
-        <v>7.84356815543057e-05</v>
+        <v>0.005208509517593931</v>
       </c>
       <c r="H16" t="n">
-        <v>0.001183692146668048</v>
+        <v>0.004193717695384845</v>
       </c>
       <c r="I16" t="n">
-        <v>0.00238704500170766</v>
+        <v>0.001140703488092208</v>
       </c>
       <c r="J16" t="n">
-        <v>0.965588778655865</v>
+        <v>0.9804481461139731</v>
       </c>
       <c r="K16" t="n">
-        <v>4.493399309515625e-07</v>
+        <v>1.495849477596957e-06</v>
       </c>
       <c r="L16" t="n">
-        <v>0.01708780739354907</v>
+        <v>0.0008906043818744689</v>
       </c>
       <c r="M16" t="n">
-        <v>2.191598202945091e-05</v>
+        <v>1.649189967477378e-05</v>
       </c>
       <c r="N16" t="n">
-        <v>0.965588778655865</v>
+        <v>0.9804481461139731</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1359,47 +1359,47 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT3531.fa</t>
+          <t>even_MAG-GUT26531.fa</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.0002209320193830065</v>
+        <v>0.001469513785234071</v>
       </c>
       <c r="C17" t="n">
-        <v>0.001827025911142767</v>
+        <v>0.0005964820910687489</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8637374423807345</v>
+        <v>0.8813668502891311</v>
       </c>
       <c r="E17" t="n">
-        <v>0.002316693021886061</v>
+        <v>0.003553701473968201</v>
       </c>
       <c r="F17" t="n">
-        <v>0.02035117583720478</v>
+        <v>0.0002543407534518301</v>
       </c>
       <c r="G17" t="n">
-        <v>0.08661125637874982</v>
+        <v>0.02917414308149092</v>
       </c>
       <c r="H17" t="n">
-        <v>0.009029497982866725</v>
+        <v>0.001433607818829262</v>
       </c>
       <c r="I17" t="n">
-        <v>0.009353015781698702</v>
+        <v>0.02181116912065045</v>
       </c>
       <c r="J17" t="n">
-        <v>1.067280568554928e-05</v>
+        <v>1.043551898151726e-05</v>
       </c>
       <c r="K17" t="n">
-        <v>0.003638591471796365</v>
+        <v>0.02421315585647058</v>
       </c>
       <c r="L17" t="n">
-        <v>3.653842070803381e-05</v>
+        <v>0.0007377062285499588</v>
       </c>
       <c r="M17" t="n">
-        <v>0.002867157988143628</v>
+        <v>0.0353788939821734</v>
       </c>
       <c r="N17" t="n">
-        <v>0.8637374423807345</v>
+        <v>0.8813668502891311</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1415,112 +1415,112 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT36138.fa</t>
+          <t>even_MAG-GUT26562.fa</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.00414459888913896</v>
+        <v>0.0006211350908526291</v>
       </c>
       <c r="C18" t="n">
-        <v>9.982360164574097e-05</v>
+        <v>0.01020080811904916</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0072583664350293</v>
+        <v>0.001375269280154887</v>
       </c>
       <c r="E18" t="n">
-        <v>5.588747283917214e-05</v>
+        <v>0.001454570372624412</v>
       </c>
       <c r="F18" t="n">
-        <v>0.04571771627347909</v>
+        <v>9.293601427422495e-08</v>
       </c>
       <c r="G18" t="n">
-        <v>6.480383103316331e-05</v>
+        <v>7.84356815543057e-05</v>
       </c>
       <c r="H18" t="n">
-        <v>0.004310731520820871</v>
+        <v>0.001183692146668048</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1810504654355693</v>
+        <v>0.00238704500170766</v>
       </c>
       <c r="J18" t="n">
-        <v>7.236972190243679e-05</v>
+        <v>0.965588778655865</v>
       </c>
       <c r="K18" t="n">
-        <v>0.2207298166884163</v>
+        <v>4.493399309515625e-07</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0003696766890841481</v>
+        <v>0.01708780739354907</v>
       </c>
       <c r="M18" t="n">
-        <v>0.5361257434410415</v>
+        <v>2.191598202945091e-05</v>
       </c>
       <c r="N18" t="n">
-        <v>0.5361257434410415</v>
+        <v>0.965588778655865</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>g__UMGS1519</t>
+          <t>g__Slackia_A</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>g__UMGS1519(reject)</t>
+          <t>g__Slackia_A</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT37090.fa</t>
+          <t>even_MAG-GUT3531.fa</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.01089125732302588</v>
+        <v>0.0002209320193830065</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0004742094194304694</v>
+        <v>0.001827025911142767</v>
       </c>
       <c r="D19" t="n">
-        <v>0.001654966726536318</v>
+        <v>0.8637374423807345</v>
       </c>
       <c r="E19" t="n">
-        <v>7.666287004334351e-06</v>
+        <v>0.002316693021886061</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0006149058751509815</v>
+        <v>0.02035117583720478</v>
       </c>
       <c r="G19" t="n">
-        <v>0.004448728164083576</v>
+        <v>0.08661125637874982</v>
       </c>
       <c r="H19" t="n">
-        <v>0.004401409994522129</v>
+        <v>0.009029497982866725</v>
       </c>
       <c r="I19" t="n">
-        <v>0.08937922335466374</v>
+        <v>0.009353015781698702</v>
       </c>
       <c r="J19" t="n">
-        <v>0.003363116292658835</v>
+        <v>1.067280568554928e-05</v>
       </c>
       <c r="K19" t="n">
-        <v>0.003052099708556466</v>
+        <v>0.003638591471796365</v>
       </c>
       <c r="L19" t="n">
-        <v>0.001742847693741047</v>
+        <v>3.653842070803381e-05</v>
       </c>
       <c r="M19" t="n">
-        <v>0.8799695691606262</v>
+        <v>0.002867157988143628</v>
       </c>
       <c r="N19" t="n">
-        <v>0.8799695691606262</v>
+        <v>0.8637374423807345</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>g__UMGS1519</t>
+          <t>g__Eggerthella</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>g__UMGS1519</t>
+          <t>g__Eggerthella</t>
         </is>
       </c>
     </row>
@@ -1583,47 +1583,47 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT44961.fa</t>
+          <t>even_MAG-GUT3922.fa</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.01910905148221313</v>
+        <v>3.78918819439428e-05</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0002690555160856151</v>
+        <v>0.0001755146003798941</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0037661258936106</v>
+        <v>0.0002738424864690283</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0001339722851693152</v>
+        <v>0.0004689042252079611</v>
       </c>
       <c r="F21" t="n">
-        <v>0.002550922174308262</v>
+        <v>0.0001887502525675714</v>
       </c>
       <c r="G21" t="n">
-        <v>8.57695902778519e-05</v>
+        <v>0.06296028486804316</v>
       </c>
       <c r="H21" t="n">
-        <v>0.001496963029205134</v>
+        <v>0.0002639608157783951</v>
       </c>
       <c r="I21" t="n">
-        <v>0.1111645458667113</v>
+        <v>0.007570235404665311</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0003876756639963301</v>
+        <v>0.006110964518454549</v>
       </c>
       <c r="K21" t="n">
-        <v>0.005264136384689637</v>
+        <v>6.834242099975216e-07</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0006364493197268332</v>
+        <v>0.0002767034769250669</v>
       </c>
       <c r="M21" t="n">
-        <v>0.8551353327940061</v>
+        <v>0.9216722640453552</v>
       </c>
       <c r="N21" t="n">
-        <v>0.8551353327940061</v>
+        <v>0.9216722640453552</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -1695,439 +1695,439 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT46719.fa</t>
+          <t>even_MAG-GUT57819.fa</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.01634512916264457</v>
+        <v>0.0001028319837995914</v>
       </c>
       <c r="C23" t="n">
-        <v>0.000101470476438175</v>
+        <v>0.003326262490622307</v>
       </c>
       <c r="D23" t="n">
-        <v>0.005311485566191582</v>
+        <v>0.001737716556574173</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0002114921333100799</v>
+        <v>0.002833197289513349</v>
       </c>
       <c r="F23" t="n">
-        <v>0.08450652261482355</v>
+        <v>1.267728445975223e-08</v>
       </c>
       <c r="G23" t="n">
-        <v>6.536146682059815e-06</v>
+        <v>2.498055520111075e-05</v>
       </c>
       <c r="H23" t="n">
-        <v>0.008187186635040037</v>
+        <v>0.001332833621154918</v>
       </c>
       <c r="I23" t="n">
-        <v>0.1946050607436294</v>
+        <v>0.001161678111620989</v>
       </c>
       <c r="J23" t="n">
-        <v>3.876816780840781e-05</v>
+        <v>0.9728794281602324</v>
       </c>
       <c r="K23" t="n">
-        <v>0.3544995561428745</v>
+        <v>1.000812666286679e-08</v>
       </c>
       <c r="L23" t="n">
-        <v>0.000749818568895134</v>
+        <v>0.01658205179220494</v>
       </c>
       <c r="M23" t="n">
-        <v>0.3354369736416625</v>
+        <v>1.899675366489544e-05</v>
       </c>
       <c r="N23" t="n">
-        <v>0.3544995561428745</v>
+        <v>0.9728794281602324</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>g__UMGS1293</t>
+          <t>g__Slackia_A</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>g__UMGS1293(reject)</t>
+          <t>g__Slackia_A</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT55663.fa</t>
+          <t>even_MAG-GUT59296.fa</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.09434644899551864</v>
+        <v>6.700470739113502e-05</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0007001489399562764</v>
+        <v>0.002024500225984076</v>
       </c>
       <c r="D24" t="n">
-        <v>0.02060290862914985</v>
+        <v>0.005970651974635251</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0002452303527017694</v>
+        <v>7.887536311777949e-05</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09402226344933691</v>
+        <v>1.047134675508021e-07</v>
       </c>
       <c r="G24" t="n">
-        <v>0.001966664872573669</v>
+        <v>0.0003215088091217085</v>
       </c>
       <c r="H24" t="n">
-        <v>0.02770066208487819</v>
+        <v>0.001408182201019074</v>
       </c>
       <c r="I24" t="n">
-        <v>0.1719305608707768</v>
+        <v>0.000228938335252027</v>
       </c>
       <c r="J24" t="n">
-        <v>0.0003305883980593223</v>
+        <v>0.9873219685428006</v>
       </c>
       <c r="K24" t="n">
-        <v>0.0539472653983232</v>
+        <v>2.794694422433437e-07</v>
       </c>
       <c r="L24" t="n">
-        <v>0.003799409516745564</v>
+        <v>0.002524318689637951</v>
       </c>
       <c r="M24" t="n">
-        <v>0.5304078484919799</v>
+        <v>5.366696813054512e-05</v>
       </c>
       <c r="N24" t="n">
-        <v>0.5304078484919799</v>
+        <v>0.9873219685428006</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>g__UMGS1519</t>
+          <t>g__Slackia_A</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>g__UMGS1519(reject)</t>
+          <t>g__Slackia_A</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT55688.fa</t>
+          <t>even_MAG-GUT62293.fa</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.06352040570052822</v>
+        <v>6.837257148495575e-05</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0009317663024381389</v>
+        <v>0.002222340840294539</v>
       </c>
       <c r="D25" t="n">
-        <v>0.05627154047063684</v>
+        <v>0.001519823880534083</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0004157276808250879</v>
+        <v>3.840608718931168e-05</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1528129425225065</v>
+        <v>3.911637700220639e-07</v>
       </c>
       <c r="G25" t="n">
-        <v>0.00186686544908405</v>
+        <v>0.0001109838650450807</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0817569925764747</v>
+        <v>0.003123922195485586</v>
       </c>
       <c r="I25" t="n">
-        <v>0.1518136055169981</v>
+        <v>0.003991863785003754</v>
       </c>
       <c r="J25" t="n">
-        <v>0.003063123313900698</v>
+        <v>0.9875955432505836</v>
       </c>
       <c r="K25" t="n">
-        <v>0.08347611349962109</v>
+        <v>2.419098175218248e-07</v>
       </c>
       <c r="L25" t="n">
-        <v>0.006440081719315032</v>
+        <v>0.001228008605449596</v>
       </c>
       <c r="M25" t="n">
-        <v>0.3976308352476716</v>
+        <v>0.000100101845341822</v>
       </c>
       <c r="N25" t="n">
-        <v>0.3976308352476716</v>
+        <v>0.9875955432505836</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>g__UMGS1519</t>
+          <t>g__Slackia_A</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>g__UMGS1519(reject)</t>
+          <t>g__Slackia_A</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT57819.fa</t>
+          <t>even_MAG-GUT68598.fa</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.0001028319837995914</v>
+        <v>2.146993143896513e-05</v>
       </c>
       <c r="C26" t="n">
-        <v>0.003326262490622307</v>
+        <v>0.01407842866517101</v>
       </c>
       <c r="D26" t="n">
-        <v>0.001737716556574173</v>
+        <v>0.8566334713405445</v>
       </c>
       <c r="E26" t="n">
-        <v>0.002833197289513349</v>
+        <v>0.002202674083375672</v>
       </c>
       <c r="F26" t="n">
-        <v>1.267728445975223e-08</v>
+        <v>0.07718207233279288</v>
       </c>
       <c r="G26" t="n">
-        <v>2.498055520111075e-05</v>
+        <v>0.04234766419895539</v>
       </c>
       <c r="H26" t="n">
-        <v>0.001332833621154918</v>
+        <v>0.00278969000589111</v>
       </c>
       <c r="I26" t="n">
-        <v>0.001161678111620989</v>
+        <v>0.002540930561211417</v>
       </c>
       <c r="J26" t="n">
-        <v>0.9728794281602324</v>
+        <v>0.001654448815819602</v>
       </c>
       <c r="K26" t="n">
-        <v>1.000812666286679e-08</v>
+        <v>9.423939126839383e-05</v>
       </c>
       <c r="L26" t="n">
-        <v>0.01658205179220494</v>
+        <v>6.411174759945159e-06</v>
       </c>
       <c r="M26" t="n">
-        <v>1.899675366489544e-05</v>
+        <v>0.0004484994987711003</v>
       </c>
       <c r="N26" t="n">
-        <v>0.9728794281602324</v>
+        <v>0.8566334713405445</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>g__Slackia_A</t>
+          <t>g__Eggerthella</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>g__Slackia_A</t>
+          <t>g__Eggerthella</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT59296.fa</t>
+          <t>even_MAG-GUT80384.fa</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>6.700470739113502e-05</v>
+        <v>0.0160517577634858</v>
       </c>
       <c r="C27" t="n">
-        <v>0.002024500225984076</v>
+        <v>0.06275178173389379</v>
       </c>
       <c r="D27" t="n">
-        <v>0.005970651974635251</v>
+        <v>0.003510367095012664</v>
       </c>
       <c r="E27" t="n">
-        <v>7.887536311777949e-05</v>
+        <v>0.001079902120918927</v>
       </c>
       <c r="F27" t="n">
-        <v>1.047134675508021e-07</v>
+        <v>3.805983028573504e-05</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0003215088091217085</v>
+        <v>0.1090132039469917</v>
       </c>
       <c r="H27" t="n">
-        <v>0.001408182201019074</v>
+        <v>0.0001591820338496423</v>
       </c>
       <c r="I27" t="n">
-        <v>0.000228938335252027</v>
+        <v>0.01168814454704684</v>
       </c>
       <c r="J27" t="n">
-        <v>0.9873219685428006</v>
+        <v>0.04187239798673852</v>
       </c>
       <c r="K27" t="n">
-        <v>2.794694422433437e-07</v>
+        <v>0.0003294470607847153</v>
       </c>
       <c r="L27" t="n">
-        <v>0.002524318689637951</v>
+        <v>4.321326156746832e-05</v>
       </c>
       <c r="M27" t="n">
-        <v>5.366696813054512e-05</v>
+        <v>0.753462542619424</v>
       </c>
       <c r="N27" t="n">
-        <v>0.9873219685428006</v>
+        <v>0.753462542619424</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>g__Slackia_A</t>
+          <t>g__UMGS1519</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>g__Slackia_A</t>
+          <t>g__UMGS1519</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT62293.fa</t>
+          <t>even_MAG-GUT80720.fa</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>6.837257148495575e-05</v>
+        <v>0.0002509836810668035</v>
       </c>
       <c r="C28" t="n">
-        <v>0.002222340840294539</v>
+        <v>0.0002634164698741094</v>
       </c>
       <c r="D28" t="n">
-        <v>0.001519823880534083</v>
+        <v>0.0003282912299611723</v>
       </c>
       <c r="E28" t="n">
-        <v>3.840608718931168e-05</v>
+        <v>0.0001144017712866932</v>
       </c>
       <c r="F28" t="n">
-        <v>3.911637700220639e-07</v>
+        <v>6.763973769917999e-05</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0001109838650450807</v>
+        <v>0.05456172735165365</v>
       </c>
       <c r="H28" t="n">
-        <v>0.003123922195485586</v>
+        <v>0.0002966545184542317</v>
       </c>
       <c r="I28" t="n">
-        <v>0.003991863785003754</v>
+        <v>0.003519336553000477</v>
       </c>
       <c r="J28" t="n">
-        <v>0.9875955432505836</v>
+        <v>0.001939292577830727</v>
       </c>
       <c r="K28" t="n">
-        <v>2.419098175218248e-07</v>
+        <v>4.992598154397261e-07</v>
       </c>
       <c r="L28" t="n">
-        <v>0.001228008605449596</v>
+        <v>0.0001609954029402826</v>
       </c>
       <c r="M28" t="n">
-        <v>0.000100101845341822</v>
+        <v>0.9384967614464172</v>
       </c>
       <c r="N28" t="n">
-        <v>0.9875955432505836</v>
+        <v>0.9384967614464172</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>g__Slackia_A</t>
+          <t>g__UMGS1519</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>g__Slackia_A</t>
+          <t>g__UMGS1519</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT67120.fa</t>
+          <t>even_MAG-GUT80819.fa</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.1490238182465566</v>
+        <v>0.0007953927658553725</v>
       </c>
       <c r="C29" t="n">
-        <v>0.001868182993188858</v>
+        <v>0.001048250057546592</v>
       </c>
       <c r="D29" t="n">
-        <v>0.04255963679663705</v>
+        <v>0.6610159945453544</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0005350009049388592</v>
+        <v>0.0006644466956661349</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1327432054041616</v>
+        <v>0.206610787129188</v>
       </c>
       <c r="G29" t="n">
-        <v>0.006731308164288414</v>
+        <v>0.02198882167588559</v>
       </c>
       <c r="H29" t="n">
-        <v>0.06353776185035931</v>
+        <v>0.02005644335099205</v>
       </c>
       <c r="I29" t="n">
-        <v>0.2086792118212374</v>
+        <v>0.01420526577990305</v>
       </c>
       <c r="J29" t="n">
-        <v>0.008295020922857006</v>
+        <v>0.0002280244502213441</v>
       </c>
       <c r="K29" t="n">
-        <v>0.04834268311866016</v>
+        <v>0.06578897816022318</v>
       </c>
       <c r="L29" t="n">
-        <v>0.01075054428962962</v>
+        <v>1.057396915436734e-05</v>
       </c>
       <c r="M29" t="n">
-        <v>0.3269336254874849</v>
+        <v>0.007587021420009948</v>
       </c>
       <c r="N29" t="n">
-        <v>0.3269336254874849</v>
+        <v>0.6610159945453544</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>g__UMGS1519</t>
+          <t>g__Eggerthella</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>g__UMGS1519(reject)</t>
+          <t>g__Eggerthella</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT67839.fa</t>
+          <t>even_MAG-GUT81523.fa</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.02578689733440208</v>
+        <v>0.02522033059280503</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0003803047544097949</v>
+        <v>0.03192839958875468</v>
       </c>
       <c r="D30" t="n">
-        <v>0.01049571136145374</v>
+        <v>0.003154090971831476</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0002440093118410717</v>
+        <v>0.007578570135554782</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1599720717636796</v>
+        <v>0.006451972624464446</v>
       </c>
       <c r="G30" t="n">
-        <v>0.002143988744952547</v>
+        <v>0.3022056224801967</v>
       </c>
       <c r="H30" t="n">
-        <v>0.01993418112288187</v>
+        <v>0.000121009290732515</v>
       </c>
       <c r="I30" t="n">
-        <v>0.200737774506002</v>
+        <v>0.005376353465631132</v>
       </c>
       <c r="J30" t="n">
-        <v>0.0006616372590112764</v>
+        <v>4.77331863981792e-05</v>
       </c>
       <c r="K30" t="n">
-        <v>0.174014601692281</v>
+        <v>0.0003111516966578734</v>
       </c>
       <c r="L30" t="n">
-        <v>0.0005936879900486744</v>
+        <v>4.979046776716723e-05</v>
       </c>
       <c r="M30" t="n">
-        <v>0.4050351341590362</v>
+        <v>0.617554975499206</v>
       </c>
       <c r="N30" t="n">
-        <v>0.4050351341590362</v>
+        <v>0.617554975499206</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -2143,726 +2143,166 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT67977.fa</t>
+          <t>even_MAG-GUT82008.fa</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.0907049942390111</v>
+        <v>0.004436668768104452</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0006196791428992692</v>
+        <v>0.9860437183993396</v>
       </c>
       <c r="D31" t="n">
-        <v>0.04509047491331657</v>
+        <v>0.007230237714797827</v>
       </c>
       <c r="E31" t="n">
-        <v>0.002256031648485896</v>
+        <v>0.0003293871230550966</v>
       </c>
       <c r="F31" t="n">
-        <v>0.26877471410981</v>
+        <v>0.0001059355049163749</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0009342311299036817</v>
+        <v>0.0007301461918123002</v>
       </c>
       <c r="H31" t="n">
-        <v>0.05279643189965848</v>
+        <v>4.328502613037403e-05</v>
       </c>
       <c r="I31" t="n">
-        <v>0.10520085259197</v>
+        <v>0.000362428456619734</v>
       </c>
       <c r="J31" t="n">
-        <v>0.0008722206025689851</v>
+        <v>4.705173713572253e-05</v>
       </c>
       <c r="K31" t="n">
-        <v>0.1192322362975172</v>
+        <v>1.474736700707451e-07</v>
       </c>
       <c r="L31" t="n">
-        <v>0.00505161618455258</v>
+        <v>0.0006374214641879057</v>
       </c>
       <c r="M31" t="n">
-        <v>0.3084665172403061</v>
+        <v>3.357214023024495e-05</v>
       </c>
       <c r="N31" t="n">
-        <v>0.3084665172403061</v>
+        <v>0.9860437183993396</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>g__UMGS1519</t>
+          <t>g__CAG-1427</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>g__UMGS1519(reject)</t>
+          <t>g__CAG-1427</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68023.fa</t>
+          <t>even_MAG-GUT8776.fa</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.005760849721401879</v>
+        <v>0.0002038262524901485</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0001261174419558275</v>
+        <v>0.002991245597473334</v>
       </c>
       <c r="D32" t="n">
-        <v>0.007435374975864226</v>
+        <v>0.003114480072393779</v>
       </c>
       <c r="E32" t="n">
-        <v>5.587299675233297e-05</v>
+        <v>0.0007531711476383238</v>
       </c>
       <c r="F32" t="n">
-        <v>0.04474069470311168</v>
+        <v>1.062262555188808e-07</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0001334987839468947</v>
+        <v>0.0003578156934168376</v>
       </c>
       <c r="H32" t="n">
-        <v>0.004166935858764509</v>
+        <v>0.002654990278942219</v>
       </c>
       <c r="I32" t="n">
-        <v>0.1551591593638537</v>
+        <v>0.001870931755557914</v>
       </c>
       <c r="J32" t="n">
-        <v>2.400428397960127e-05</v>
+        <v>0.9827149657355581</v>
       </c>
       <c r="K32" t="n">
-        <v>0.4598368521873161</v>
+        <v>4.450742406910509e-07</v>
       </c>
       <c r="L32" t="n">
-        <v>0.0006640784062978851</v>
+        <v>0.005319286044982904</v>
       </c>
       <c r="M32" t="n">
-        <v>0.3218965612767554</v>
+        <v>1.873612105035474e-05</v>
       </c>
       <c r="N32" t="n">
-        <v>0.4598368521873161</v>
+        <v>0.9827149657355581</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>g__UMGS1293</t>
+          <t>g__Slackia_A</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>g__UMGS1293(reject)</t>
+          <t>g__Slackia_A</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68145.fa</t>
+          <t>even_MAG-GUT9228.fa</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.00678442868701393</v>
+        <v>5.799996832870006e-05</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0001154368201106149</v>
+        <v>0.003356065315005105</v>
       </c>
       <c r="D33" t="n">
-        <v>0.004806326772039267</v>
+        <v>0.001421804404733637</v>
       </c>
       <c r="E33" t="n">
-        <v>4.064631210522103e-05</v>
+        <v>0.0001087478945429537</v>
       </c>
       <c r="F33" t="n">
-        <v>0.03706976306513608</v>
+        <v>1.860327244043601e-07</v>
       </c>
       <c r="G33" t="n">
-        <v>6.490026980439593e-05</v>
+        <v>8.452639981707806e-06</v>
       </c>
       <c r="H33" t="n">
-        <v>0.01230915650147642</v>
+        <v>0.001866608422762466</v>
       </c>
       <c r="I33" t="n">
-        <v>0.08346031866750657</v>
+        <v>0.007481300507329518</v>
       </c>
       <c r="J33" t="n">
-        <v>0.0008332030037252825</v>
+        <v>0.9852576033122663</v>
       </c>
       <c r="K33" t="n">
-        <v>0.0244862595727335</v>
+        <v>1.085262305462979e-07</v>
       </c>
       <c r="L33" t="n">
-        <v>0.0009189708922348583</v>
+        <v>0.0004273993475958655</v>
       </c>
       <c r="M33" t="n">
-        <v>0.8291105894361138</v>
+        <v>1.372362849875403e-05</v>
       </c>
       <c r="N33" t="n">
-        <v>0.8291105894361138</v>
+        <v>0.9852576033122663</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>g__UMGS1519</t>
+          <t>g__Slackia_A</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
-        <is>
-          <t>g__UMGS1519</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT68157.fa</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>0.07398475274903774</v>
-      </c>
-      <c r="C34" t="n">
-        <v>0.0009303472809503729</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0.08582021229528161</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0.001132171775967372</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0.08995328975418823</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0.0004130628270100573</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0.03802456841265465</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0.2367991343790931</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0.002950406966318707</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0.1642115020892882</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0.02000588310518371</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0.2857746683650264</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0.2857746683650264</v>
-      </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>g__UMGS1519</t>
-        </is>
-      </c>
-      <c r="P34" t="inlineStr">
-        <is>
-          <t>g__UMGS1519(reject)</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT68181.fa</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>0.02305234524379807</v>
-      </c>
-      <c r="C35" t="n">
-        <v>0.0002220945228280402</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0.007573938841103289</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0.0001856725482345879</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0.06799534638235041</v>
-      </c>
-      <c r="G35" t="n">
-        <v>1.612130406897076e-05</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0.006018789346716521</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0.2158649062116437</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0.0001389509274962657</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0.2061963366748399</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0.0006061780775760086</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0.4721293199193443</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0.4721293199193443</v>
-      </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>g__UMGS1519</t>
-        </is>
-      </c>
-      <c r="P35" t="inlineStr">
-        <is>
-          <t>g__UMGS1519(reject)</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT68598.fa</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>2.146993143896513e-05</v>
-      </c>
-      <c r="C36" t="n">
-        <v>0.01407842866517101</v>
-      </c>
-      <c r="D36" t="n">
-        <v>0.8566334713405445</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0.002202674083375672</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0.07718207233279288</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0.04234766419895539</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0.00278969000589111</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0.002540930561211417</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0.001654448815819602</v>
-      </c>
-      <c r="K36" t="n">
-        <v>9.423939126839383e-05</v>
-      </c>
-      <c r="L36" t="n">
-        <v>6.411174759945159e-06</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0.0004484994987711003</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0.8566334713405445</v>
-      </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>g__Eggerthella</t>
-        </is>
-      </c>
-      <c r="P36" t="inlineStr">
-        <is>
-          <t>g__Eggerthella</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT68659.fa</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>0.01358409542660981</v>
-      </c>
-      <c r="C37" t="n">
-        <v>0.0001037003608413205</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0.009018233350102611</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0.0001079976971715806</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0.07462257591637134</v>
-      </c>
-      <c r="G37" t="n">
-        <v>7.105818055347021e-06</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0.004432920951750503</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0.07022419208280262</v>
-      </c>
-      <c r="J37" t="n">
-        <v>9.302318729508758e-05</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0.6589672378031751</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0.000549455004424831</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0.1682894624014</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0.6589672378031751</v>
-      </c>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>g__UMGS1293</t>
-        </is>
-      </c>
-      <c r="P37" t="inlineStr">
-        <is>
-          <t>g__UMGS1293(reject)</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT74324.fa</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>0.004853427688796218</v>
-      </c>
-      <c r="C38" t="n">
-        <v>0.0001223314193994801</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0.003537195180391242</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0.0001170052295823386</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0.03274216396168197</v>
-      </c>
-      <c r="G38" t="n">
-        <v>5.854862032231435e-05</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0.006245412649394503</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0.2018646522602687</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0.0002954964601367069</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0.07337949456812677</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0.0004618076939490697</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0.6763224642679507</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0.6763224642679507</v>
-      </c>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>g__UMGS1519</t>
-        </is>
-      </c>
-      <c r="P38" t="inlineStr">
-        <is>
-          <t>g__UMGS1519(reject)</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT80819.fa</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>0.0007953927658553725</v>
-      </c>
-      <c r="C39" t="n">
-        <v>0.001048250057546592</v>
-      </c>
-      <c r="D39" t="n">
-        <v>0.6610159945453544</v>
-      </c>
-      <c r="E39" t="n">
-        <v>0.0006644466956661349</v>
-      </c>
-      <c r="F39" t="n">
-        <v>0.206610787129188</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0.02198882167588559</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0.02005644335099205</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0.01420526577990305</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0.0002280244502213441</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0.06578897816022318</v>
-      </c>
-      <c r="L39" t="n">
-        <v>1.057396915436734e-05</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0.007587021420009948</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0.6610159945453544</v>
-      </c>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t>g__Eggerthella</t>
-        </is>
-      </c>
-      <c r="P39" t="inlineStr">
-        <is>
-          <t>g__Eggerthella</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT81959.fa</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>0.07492556837699918</v>
-      </c>
-      <c r="C40" t="n">
-        <v>0.002243749568196528</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0.04598333946097315</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0.001566060777720321</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0.1730048531554609</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0.002961703719487143</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0.06138826320626548</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0.2452720662278675</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0.001302679158034053</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0.09509285811440001</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0.02460182505037366</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0.2716570331842221</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0.2716570331842221</v>
-      </c>
-      <c r="O40" t="inlineStr">
-        <is>
-          <t>g__UMGS1519</t>
-        </is>
-      </c>
-      <c r="P40" t="inlineStr">
-        <is>
-          <t>g__UMGS1519(reject)</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT82008.fa</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>0.004436668768104452</v>
-      </c>
-      <c r="C41" t="n">
-        <v>0.9860437183993396</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0.007230237714797827</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0.0003293871230550966</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0.0001059355049163749</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0.0007301461918123002</v>
-      </c>
-      <c r="H41" t="n">
-        <v>4.328502613037403e-05</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0.000362428456619734</v>
-      </c>
-      <c r="J41" t="n">
-        <v>4.705173713572253e-05</v>
-      </c>
-      <c r="K41" t="n">
-        <v>1.474736700707451e-07</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0.0006374214641879057</v>
-      </c>
-      <c r="M41" t="n">
-        <v>3.357214023024495e-05</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0.9860437183993396</v>
-      </c>
-      <c r="O41" t="inlineStr">
-        <is>
-          <t>g__CAG-1427</t>
-        </is>
-      </c>
-      <c r="P41" t="inlineStr">
-        <is>
-          <t>g__CAG-1427</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT8776.fa</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>0.0002038262524901485</v>
-      </c>
-      <c r="C42" t="n">
-        <v>0.002991245597473334</v>
-      </c>
-      <c r="D42" t="n">
-        <v>0.003114480072393779</v>
-      </c>
-      <c r="E42" t="n">
-        <v>0.0007531711476383238</v>
-      </c>
-      <c r="F42" t="n">
-        <v>1.062262555188808e-07</v>
-      </c>
-      <c r="G42" t="n">
-        <v>0.0003578156934168376</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0.002654990278942219</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0.001870931755557914</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0.9827149657355581</v>
-      </c>
-      <c r="K42" t="n">
-        <v>4.450742406910509e-07</v>
-      </c>
-      <c r="L42" t="n">
-        <v>0.005319286044982904</v>
-      </c>
-      <c r="M42" t="n">
-        <v>1.873612105035474e-05</v>
-      </c>
-      <c r="N42" t="n">
-        <v>0.9827149657355581</v>
-      </c>
-      <c r="O42" t="inlineStr">
-        <is>
-          <t>g__Slackia_A</t>
-        </is>
-      </c>
-      <c r="P42" t="inlineStr">
-        <is>
-          <t>g__Slackia_A</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT9228.fa</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
-        <v>5.799996832870006e-05</v>
-      </c>
-      <c r="C43" t="n">
-        <v>0.003356065315005105</v>
-      </c>
-      <c r="D43" t="n">
-        <v>0.001421804404733637</v>
-      </c>
-      <c r="E43" t="n">
-        <v>0.0001087478945429537</v>
-      </c>
-      <c r="F43" t="n">
-        <v>1.860327244043601e-07</v>
-      </c>
-      <c r="G43" t="n">
-        <v>8.452639981707806e-06</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0.001866608422762466</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0.007481300507329518</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0.9852576033122663</v>
-      </c>
-      <c r="K43" t="n">
-        <v>1.085262305462979e-07</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0.0004273993475958655</v>
-      </c>
-      <c r="M43" t="n">
-        <v>1.372362849875403e-05</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0.9852576033122663</v>
-      </c>
-      <c r="O43" t="inlineStr">
-        <is>
-          <t>g__Slackia_A</t>
-        </is>
-      </c>
-      <c r="P43" t="inlineStr">
         <is>
           <t>g__Slackia_A</t>
         </is>

--- a/outputs-HGR-r202/f__Eggerthellaceae.xlsx
+++ b/outputs-HGR-r202/f__Eggerthellaceae.xlsx
@@ -736,7 +736,7 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>g__UMGS1519</t>
+          <t>g__UMGS1519(reject)</t>
         </is>
       </c>
     </row>
@@ -848,7 +848,7 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>g__Slackia_A</t>
+          <t>g__Slackia_A(reject)</t>
         </is>
       </c>
     </row>
@@ -1352,7 +1352,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>g__UMGS1519</t>
+          <t>g__UMGS1519(reject)</t>
         </is>
       </c>
     </row>
